--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\MiniDesignerConfigsTemplate\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\OasisProject3D\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD8894F-029A-4140-BBA8-F8C59CD1DD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D901AB33-C528-42A9-89D2-BF23498F2CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1875" windowWidth="25140" windowHeight="14325" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="-10830" yWindow="5295" windowWidth="21540" windowHeight="16905" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,30 +35,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>alias</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,42 +55,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最高品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最差品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>full_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test.ETestQuality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全名(包含模块和名字)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,39 +99,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test.AccessFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WRITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>READ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRUNCATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>READ_WRITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WRITE|READ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否为标志类（即每个枚举项为位标记，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapSystem.EBlockType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oasis</t>
+  </si>
+  <si>
+    <t>沙漠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戈壁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +151,21 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -230,12 +192,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,16 +516,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
@@ -570,25 +535,25 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -597,52 +562,52 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="b">
@@ -652,107 +617,35 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9">
         <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\OasisProject3D\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitRepo\OasisProject3D\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D901AB33-C528-42A9-89D2-BF23498F2CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCAC704-3051-4A52-B049-DB29B470F8DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10830" yWindow="5295" windowWidth="21540" windowHeight="16905" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="-10830" yWindow="5300" windowWidth="21540" windowHeight="16910" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,14 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否为标志类（即每个枚举项为位标记，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MapSystem.EBlockType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Desert</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,18 +111,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>沙漠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戈壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Functional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Production</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓储建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SandCtrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治沙建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为标志类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingRes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seedling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼苗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBlockType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBuildingType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EResType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Oasis</t>
-  </si>
-  <si>
-    <t>沙漠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿洲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戈壁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,35 +236,82 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -192,15 +320,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,137 +653,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="3">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="3">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="b">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="D4" t="b">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="2">
         <v>2</v>
       </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="2">
+        <v>4</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitRepo\OasisProject3D\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCAC704-3051-4A52-B049-DB29B470F8DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B21ABED-9EC4-49C2-83E9-EB3B6F4BFDA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10830" yWindow="5300" windowWidth="21540" windowHeight="16910" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="-10830" yWindow="5295" windowWidth="21540" windowHeight="16905" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Water</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,6 +208,10 @@
   </si>
   <si>
     <t>Oasis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,25 +656,25 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -726,7 +726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -755,10 +755,10 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="b">
         <v>0</v>
@@ -780,7 +780,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -799,7 +799,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -807,7 +807,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>22</v>
@@ -818,10 +818,10 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3" t="b">
         <v>1</v>
@@ -843,7 +843,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -862,7 +862,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -881,7 +881,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -900,10 +900,10 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="b">
         <v>0</v>
@@ -914,10 +914,10 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
@@ -925,7 +925,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -933,10 +933,10 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -944,7 +944,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -955,7 +955,7 @@
         <v>35</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I13" s="2">
         <v>2</v>
@@ -963,7 +963,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -982,7 +982,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -990,10 +990,10 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="I15" s="2">
         <v>4</v>

--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitRepo\OasisProject3D\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B21ABED-9EC4-49C2-83E9-EB3B6F4BFDA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBD4A3E-5A30-46A1-97D2-91FA9BA9250E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10830" yWindow="5295" windowWidth="21540" windowHeight="16905" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
@@ -656,7 +656,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
